--- a/Data/Results/RQ1/interface-level dep.xlsx
+++ b/Data/Results/RQ1/interface-level dep.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022ASE\data\Results\RQ1 Interface-level Dependencies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022ASE\data\Data\Results\RQ1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FD631F-D015-4CC2-9673-30906EDF4704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08845B33-7924-4E7B-AD89-39E3DCF498F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>version</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>Reflect_n2e</t>
+  </si>
+  <si>
+    <t>IndustrialX-S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustrialX-R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -198,10 +206,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,19 +495,19 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -553,644 +561,755 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>608</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>246</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>75</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>78</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>9479</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>3554</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>107</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>28</v>
       </c>
-      <c r="L2" s="4">
-        <v>41</v>
-      </c>
-      <c r="M2" s="4">
-        <v>14</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="L2" s="3">
         <v>223</v>
       </c>
-      <c r="O2" s="4">
+      <c r="M2" s="3">
         <v>8</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="N2" s="3">
+        <v>259</v>
+      </c>
+      <c r="O2" s="3">
+        <v>27</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>69</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>41</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>25</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>10</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>1482</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>451</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>11</v>
       </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>4</v>
-      </c>
-      <c r="M3" s="4">
-        <v>4</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
         <v>22</v>
       </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>19</v>
+      </c>
+      <c r="O3" s="3">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>14</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>34</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>9</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>1012</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>392</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>5</v>
       </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>5</v>
-      </c>
-      <c r="M4" s="4">
-        <v>2</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
         <v>18</v>
       </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>8</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>25</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>13</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>190</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>143</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>68</v>
       </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>2</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>14</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>516</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>67</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>55</v>
       </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>8</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>11</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>67</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>33</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>30</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>1016</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>374</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>114</v>
       </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>4</v>
-      </c>
-      <c r="M7" s="4">
-        <v>3</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
         <v>54</v>
       </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>28</v>
+      </c>
+      <c r="O7" s="3">
+        <v>2</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>74</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>16</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>26</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>36</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>1407</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>354</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>136</v>
       </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>7</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>6</v>
       </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>27</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>101</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>24</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>33</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>1499</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>353</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>123</v>
       </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>14</v>
-      </c>
-      <c r="M9" s="4">
-        <v>2</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>25</v>
       </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>44</v>
+      </c>
+      <c r="O9" s="3">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>72</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>11</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>17</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>30</v>
       </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>1311</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>426</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>107</v>
       </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>18</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>29</v>
+      </c>
+      <c r="O10" s="3">
         <v>2</v>
       </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>14</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
         <v>289</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>90</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>39</v>
       </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>3</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
         <v>1</v>
       </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>12</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>155</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>47</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>32</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>11</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>40</v>
       </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>2694</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>651</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>94</v>
       </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>53</v>
-      </c>
-      <c r="M12" s="4">
-        <v>7</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>22</v>
       </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>28</v>
+      </c>
+      <c r="O12" s="3">
+        <v>26</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>100</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>15</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>11</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>42</v>
       </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
         <v>2149</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>425</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>108</v>
       </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>64</v>
-      </c>
-      <c r="M13" s="4">
-        <v>3</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
         <v>17</v>
       </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>22</v>
+      </c>
+      <c r="O13" s="3">
+        <v>7</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>81</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>15</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>32</v>
       </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1774</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>351</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>75</v>
       </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>59</v>
-      </c>
-      <c r="M14" s="4">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3</v>
       </c>
-      <c r="N14" s="4">
-        <v>3</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4535</v>
+      </c>
+      <c r="C15" s="4">
+        <v>305</v>
+      </c>
+      <c r="D15" s="4">
+        <v>456</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4">
+        <v>965</v>
+      </c>
+      <c r="G15" s="4">
+        <v>38</v>
+      </c>
+      <c r="H15" s="4">
+        <v>86573</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7832</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1298</v>
+      </c>
+      <c r="K15" s="4">
+        <v>33</v>
+      </c>
+      <c r="L15" s="4">
+        <v>148</v>
+      </c>
+      <c r="M15" s="4">
+        <v>14</v>
+      </c>
+      <c r="N15" s="4">
+        <v>538</v>
+      </c>
+      <c r="O15" s="4">
+        <v>15</v>
+      </c>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2382</v>
+      </c>
+      <c r="C16" s="4">
+        <v>280</v>
+      </c>
+      <c r="D16" s="4">
+        <v>207</v>
+      </c>
+      <c r="E16" s="4">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4">
+        <v>534</v>
+      </c>
+      <c r="G16" s="4">
+        <v>40</v>
+      </c>
+      <c r="H16" s="4">
+        <v>60166</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7372</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1035</v>
+      </c>
+      <c r="K16" s="4">
+        <v>46</v>
+      </c>
+      <c r="L16" s="4">
+        <v>273</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>229</v>
+      </c>
+      <c r="O16" s="4">
+        <v>9</v>
+      </c>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>